--- a/Landscape Committee Findings 2025 NOV 03 No Pics.xlsx
+++ b/Landscape Committee Findings 2025 NOV 03 No Pics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/n/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/n/Desktop/ivcha/landscape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA02DFD3-CB01-974E-89FC-3E511F82019B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C08863A-73CC-0C46-AA9D-374E2B6881F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="500" windowWidth="34400" windowHeight="20420" xr2:uid="{0A1419D7-6BCF-E14D-B4DA-4FFA31241750}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="211">
   <si>
     <t>Tall Grass</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>NW section of property is a wetland (Note topped pine in the  background. Possible water damage &amp; decay may begin and weaken the tree.)</t>
-  </si>
-  <si>
-    <t>North side of C</t>
   </si>
   <si>
     <t>Uprooted Rhododendron &amp; wooden debris</t>
@@ -548,13 +545,7 @@
     <t>Southern By Design has been notifed to instruct workers to remove invasive ivy from siding and ground.</t>
   </si>
   <si>
-    <t>Southern by Design has been notifed to prune or remove or replant</t>
-  </si>
-  <si>
     <t>Southern By Design has been notified and will remove or replant</t>
-  </si>
-  <si>
-    <t>Why is this not growing? Possibly damaged by falling tree during bomb cyclone. Give it time to recover.</t>
   </si>
   <si>
     <t>SBD has recommended giving it time to recover.</t>
@@ -830,19 +821,49 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Partial Done photos 10/3/25</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
     <t>Priority</t>
   </si>
   <si>
-    <t>Provider</t>
-  </si>
-  <si>
     <t>Partial</t>
+  </si>
+  <si>
+    <t>May be call PSE to trim it ?</t>
+  </si>
+  <si>
+    <t>Date Entered</t>
+  </si>
+  <si>
+    <t>Date Completed</t>
+  </si>
+  <si>
+    <t>Provider/Fixer</t>
+  </si>
+  <si>
+    <t>Southern by Design</t>
+  </si>
+  <si>
+    <t>Prune or remove or replant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index: </t>
+  </si>
+  <si>
+    <t>Give it time to recover.</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Photos 10/3/25</t>
+  </si>
+  <si>
+    <t>North side of building C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation </t>
   </si>
 </sst>
 </file>
@@ -960,7 +981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1008,25 +1029,16 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1052,292 +1064,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDAE9F8"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDAF2D0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE2D5"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD0D0D0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDAE9F8"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDAF2D0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE2D5"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD0D0D0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDAE9F8"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDAF2D0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE2D5"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD0D0D0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDAE9F8"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDAF2D0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE2D5"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD0D0D0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDAE9F8"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDAF2D0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE2D5"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD0D0D0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDAE9F8"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDAF2D0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE2D5"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD0D0D0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDAE9F8"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDAF2D0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE2D5"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD0D0D0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1788,961 +1523,988 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE15E1DF-7161-4344-BD1D-089D299C1877}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="39.1640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="26" style="2" customWidth="1"/>
-    <col min="8" max="8" width="32" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="20"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="20.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="26" style="2" customWidth="1"/>
+    <col min="10" max="10" width="32" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="G1" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" s="13" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="B10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="E15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="1:11" s="20" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="20" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="I15" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="20" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="B6" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="B18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19" t="s">
+      <c r="E18" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="B19" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="20" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="20" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B8" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="20" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B9" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="20" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="B22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B23" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="20" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="20" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="20" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="21" t="s">
+      <c r="J24" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
-        <v>3</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="20" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
-        <v>3</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="20" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="20" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B24" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="8" t="s">
-        <v>148</v>
-      </c>
+      <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="J26" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="23" t="s">
         <v>66</v>
       </c>
+      <c r="C27" s="23"/>
       <c r="D27" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="26" t="s">
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="E28" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="27" t="s">
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B30" s="27" t="s">
+      <c r="G29" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C30" s="24"/>
       <c r="D30" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B31" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" s="5" t="s">
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="K34" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" s="20" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" spans="1:11" s="20" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="B37" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:11" s="20" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B38" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" s="20" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="B39" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K39" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B40" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" s="20" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B41" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K44">
-    <sortCondition sortBy="cellColor" ref="A3:A44" dxfId="49"/>
-    <sortCondition descending="1" sortBy="cellColor" ref="A3:A44" dxfId="48"/>
-    <sortCondition descending="1" sortBy="cellColor" ref="A3:A44" dxfId="47"/>
-    <sortCondition descending="1" sortBy="cellColor" ref="A3:A44" dxfId="46"/>
-    <sortCondition descending="1" sortBy="cellColor" ref="A3:A44" dxfId="45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M44">
+    <sortCondition sortBy="cellColor" ref="A3:A44" dxfId="14"/>
+    <sortCondition descending="1" sortBy="cellColor" ref="A3:A44" dxfId="13"/>
+    <sortCondition descending="1" sortBy="cellColor" ref="A3:A44" dxfId="12"/>
+    <sortCondition descending="1" sortBy="cellColor" ref="A3:A44" dxfId="11"/>
+    <sortCondition descending="1" sortBy="cellColor" ref="A3:A44" dxfId="10"/>
   </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2766,22 +2528,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
